--- a/data-raw/Kuviot_4_2022.xlsx
+++ b/data-raw/Kuviot_4_2022.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry.sharepoint.com/sites/Tuottavuuslautakunta/Shared Documents/General/pRoductivity/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35928A99-6D98-4D61-8535-02DB539398C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{35928A99-6D98-4D61-8535-02DB539398C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F41C062-3839-4C0D-908A-5003DB4F0BDB}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="225" windowWidth="17565" windowHeight="15480" activeTab="1" xr2:uid="{442AB4BA-0B31-46FF-ADBB-ECE4E80FF23C}"/>
+    <workbookView xWindow="1185" yWindow="0" windowWidth="18735" windowHeight="15480" firstSheet="3" activeTab="4" xr2:uid="{442AB4BA-0B31-46FF-ADBB-ECE4E80FF23C}"/>
   </bookViews>
   <sheets>
     <sheet name="Kuvio_4_1" sheetId="1" r:id="rId1"/>
     <sheet name="Kuvio_4_2" sheetId="2" r:id="rId2"/>
     <sheet name="Kuvio_4_3" sheetId="3" r:id="rId3"/>
     <sheet name="Kuvio_4_4" sheetId="4" r:id="rId4"/>
+    <sheet name="Kuvio_4_5" sheetId="5" r:id="rId5"/>
+    <sheet name="Kuvio_4_6" sheetId="6" r:id="rId6"/>
+    <sheet name="Kuvio_4_7" sheetId="7" r:id="rId7"/>
+    <sheet name="Kuvio_4_8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>C10</t>
   </si>
@@ -96,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +113,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -153,6 +165,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -610,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E1F03E-14CB-466B-97DC-B688A45A0EC5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1029,7 +1045,591 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD540BFB-22F9-4205-A3E3-23C0B88AD3FB}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.72900000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.77099999999999991</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.65799999999999992</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.71700000000000008</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.71200000000000008</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.57200000000000006</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.89599999999999991</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.91099999999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E761309-DAB6-49C2-8BAD-AC75563386E5}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.68099999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.90799999999999992</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.89599999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.8590000000000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.77599999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F8906F-1D31-4D3C-8739-C3626F487F97}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.435</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.33899999999999997</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.27399999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.503</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.36700000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.34299999999999997</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.32299999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.48700000000000004</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.46299999999999997</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2363ADB7-641A-4973-920C-ABA53D5A4B76}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.22699999999999998</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.6409999999999999</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.70400000000000007</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.57600000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.80799999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.68599999999999994</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.57200000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.36200000000000004</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.68299999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.626</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.7609999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84ef26b6-ae16-4e4e-9392-b7fef9600143">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a9ba0a46-c686-46a2-ba56-670af7ed77b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="9" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="9e0b2c17069702781a5de8ad55f0b85f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" xmlns:ns3="a9ba0a46-c686-46a2-ba56-670af7ed77b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa8050250656ce68e4eaea5737762b71" ns2:_="" ns3:_="">
     <xsd:import namespace="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
@@ -1212,34 +1812,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84ef26b6-ae16-4e4e-9392-b7fef9600143">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a9ba0a46-c686-46a2-ba56-670af7ed77b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB943C6C-ED7B-43B1-99CE-431C7991D2FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F576188-9374-4684-885B-19295D9F0415}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
+    <ds:schemaRef ds:uri="a9ba0a46-c686-46a2-ba56-670af7ed77b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4E688D-DBE4-4936-BEC0-9D7CB345500E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4E688D-DBE4-4936-BEC0-9D7CB345500E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F576188-9374-4684-885B-19295D9F0415}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB943C6C-ED7B-43B1-99CE-431C7991D2FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
+    <ds:schemaRef ds:uri="a9ba0a46-c686-46a2-ba56-670af7ed77b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>